--- a/cave.xlsx
+++ b/cave.xlsx
@@ -12,7 +12,7 @@
     <sheet name="L2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="L3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="L4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Characters" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="C" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">P</t>
   </si>
@@ -133,10 +133,10 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -2085,10 +2085,10 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -4037,10 +4037,10 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -5992,7 +5992,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -7938,13 +7938,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7974,27 +7974,44 @@
         <v>336</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/cave.xlsx
+++ b/cave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
   </si>
 </sst>
 </file>
@@ -132,8 +129,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -152,70 +149,70 @@
         <v>11</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,70 +226,70 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,70 +303,70 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,1687 +380,1687 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7940,8 +7937,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7980,40 +7977,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
